--- a/doc/PCB/KiCad/BOM.xlsx
+++ b/doc/PCB/KiCad/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gbw9061110.got.volvocars.net\MAUGUSTS$\Data\Git\signalbroker-lin-transceiver\doc\PCB\KiCad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gbw9061110.got.volvocars.net\MAUGUSTS$\Data\Desktop\projekt\1158668 LIN-bus kretskort\esp32 version\LIN bus esp32\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -543,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -658,6 +658,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -703,15 +718,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,421 +1059,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>9651227801</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>10</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="H28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1458,6 +1530,6 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>